--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3449343.044083343</v>
+        <v>3447455.462566942</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>112.3932904856839</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>131.101966684368</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -820,16 +820,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>8.389005322401392</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>70.03418953492978</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>74.24596078692618</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>273.0065037122681</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>55.71969997626034</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>128.0537032279749</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>21.37217646023193</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481162</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>169.6822018002572</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250816</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229327</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>59.72683757586905</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>99.90187484148903</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>33.35146980185854</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1582,7 +1582,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>203.8435192151916</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1819,16 +1819,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>203.8435192151914</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>113.9765264254022</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>139.1537278750031</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>140.0424879565119</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2239,10 +2239,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>89.1505887262624</v>
       </c>
       <c r="T22" t="n">
-        <v>139.1537278750033</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002176</v>
+        <v>8.525532102719195</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2570,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274077</v>
@@ -2612,7 +2612,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2761,16 +2761,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002162</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985774</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>179.0205566759041</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700706</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801197</v>
+        <v>91.23070601801214</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437405</v>
+        <v>90.21779139437422</v>
       </c>
       <c r="G31" t="n">
-        <v>21.10228620522496</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897893</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571479</v>
+        <v>46.15337586178621</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752356</v>
+        <v>54.76109577523575</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700201</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952708</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080338</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3512,10 +3512,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898721</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
         <v>42.28735533463134</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>632.3182666762915</v>
+        <v>919.5755868835438</v>
       </c>
       <c r="C2" t="n">
-        <v>632.3182666762915</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="D2" t="n">
-        <v>632.3182666762915</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762915</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2333.516684888777</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2079.754899526868</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1748.692012183297</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1395.923356913183</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1022.457598652103</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>632.3182666762915</v>
+        <v>919.5755868835438</v>
       </c>
     </row>
     <row r="3">
@@ -4398,28 +4398,28 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>357.2197656505683</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>209.3066720681752</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>62.41672457026485</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>863.1126181035243</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C5" t="n">
-        <v>494.1501011631125</v>
+        <v>837.1179892781315</v>
       </c>
       <c r="D5" t="n">
-        <v>135.884402556362</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>135.884402556362</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>128.9389018071586</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4595,22 +4595,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>1871.983983358262</v>
       </c>
       <c r="X5" t="n">
-        <v>1639.851790143458</v>
+        <v>1596.219838194355</v>
       </c>
       <c r="Y5" t="n">
-        <v>1249.712458167646</v>
+        <v>1206.080506218543</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4653,16 +4653,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>370.7922583306645</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027576</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="U7" t="n">
-        <v>598.7818092286818</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="V7" t="n">
-        <v>598.7818092286818</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="W7" t="n">
-        <v>598.7818092286818</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="X7" t="n">
-        <v>370.7922583306645</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="Y7" t="n">
-        <v>370.7922583306645</v>
+        <v>257.1154545468206</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1571.68901887091</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="C8" t="n">
-        <v>1571.68901887091</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.42332026416</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>827.6350676659156</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>416.649162876308</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>402.7257588148989</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>75.53103885090178</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548717</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548717</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548717</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548717</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205146</v>
+        <v>2130.940772869852</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935032</v>
+        <v>1778.172117599737</v>
       </c>
       <c r="X8" t="n">
-        <v>1958.288858935032</v>
+        <v>1404.706359338657</v>
       </c>
       <c r="Y8" t="n">
-        <v>1958.288858935032</v>
+        <v>1404.706359338657</v>
       </c>
     </row>
     <row r="9">
@@ -4878,22 +4878,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036448</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614631</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571351</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064349</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>559.192801278528</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661923</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837991</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858888</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658212</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502504</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594906</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064349</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064349</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064349</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064349</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064349</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064349</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064349</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064349</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064349</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="11">
@@ -5027,16 +5027,16 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,7 +5173,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
         <v>97.21709146028584</v>
@@ -5206,13 +5206,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952637</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="14">
@@ -5258,34 +5258,34 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514075</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5294,7 +5294,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5355,19 +5355,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>485.5200852635876</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.417155020476</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300438</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O15" t="n">
         <v>2016.139981183168</v>
@@ -5410,10 +5410,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D16" t="n">
         <v>97.21709146028584</v>
@@ -5434,22 +5434,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688069</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
         <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765183</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706315</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>531.3977182706315</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5595,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5674,13 +5674,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>675.0071030383436</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>420.3226148324568</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>420.3226148324568</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>420.3226148324568</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5726,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514083</v>
@@ -5762,40 +5762,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5826,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>659.3731057211721</v>
+        <v>732.1698305154059</v>
       </c>
       <c r="M21" t="n">
-        <v>1427.741252113633</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N21" t="n">
-        <v>1757.603879777666</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>2037.143944996363</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005286</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726217</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1408.865170834405</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387593</v>
+        <v>1408.865170834405</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>1119.736532047963</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>865.0520438420762</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>865.0520438420762</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>637.0624929440588</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005287</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,34 +5972,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>410.874530133163</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1024.771599890052</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598087</v>
+        <v>1379.229518531122</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1379.229518531122</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6224,16 +6224,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6242,7 +6242,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028599</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028599</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028599</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028599</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028584</v>
@@ -6382,52 +6382,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241955</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387593</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011509</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952639</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583033</v>
+        <v>985.7136853104474</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028599</v>
+        <v>757.7241344124301</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028599</v>
+        <v>576.8952892852544</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>412.6079778147081</v>
+        <v>474.8900731662875</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619856</v>
+        <v>1088.787142923176</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.760773441947</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.4200295030897</v>
+        <v>439.5324299542185</v>
       </c>
       <c r="C31" t="n">
-        <v>452.2447118565533</v>
+        <v>439.5324299542185</v>
       </c>
       <c r="D31" t="n">
-        <v>452.2447118565533</v>
+        <v>439.5324299542185</v>
       </c>
       <c r="E31" t="n">
-        <v>360.0924835555311</v>
+        <v>347.3802016531961</v>
       </c>
       <c r="F31" t="n">
-        <v>268.9634013389916</v>
+        <v>256.2511194366563</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276532</v>
+        <v>143.8366630378477</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569675</v>
+        <v>143.8366630378477</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864674</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933504</v>
+        <v>369.0876362933501</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667513</v>
+        <v>671.4509053667508</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962057</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899272</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096195</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167072</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662001</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737485</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818954</v>
+        <v>902.6804289818933</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652489</v>
+        <v>730.4517433652468</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030897</v>
+        <v>565.4200295030874</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6686,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6777,25 +6777,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P33" t="n">
-        <v>2358.217138262064</v>
+        <v>2432.614441745106</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103136</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,52 +6856,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,7 +6926,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6935,13 +6935,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6968,19 +6968,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2315.738453580939</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2520.760934363149</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982975</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
@@ -7099,7 +7099,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7108,37 +7108,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U37" t="n">
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7175,16 +7175,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>488.2756279992592</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>735.0407559057232</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108325</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E40" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083198</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504505</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982967</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
         <v>1688.186490350129</v>
@@ -7354,13 +7354,13 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
         <v>1489.892037025262</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045202</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010312</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="41">
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7436,22 +7436,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506727</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083207</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525397</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7637,40 +7637,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,19 +7679,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1925.814757496977</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2446.115379232724</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7792,19 +7792,19 @@
         <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254957</v>
@@ -7816,37 +7816,37 @@
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350128</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U46" t="n">
         <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y46" t="n">
         <v>772.2886129010318</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8070,7 +8070,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270186</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,10 +8541,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9238900028816</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8766,19 +8766,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>171.2966883299264</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8787,10 +8787,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,19 +9006,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>199.7396287231155</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>176.7176547498456</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,10 +9243,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>50.62661940943661</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,13 +9255,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9410,7 +9410,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9477,25 +9477,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>199.6230805871097</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>87.16935584025424</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9641,7 +9641,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504506</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>124.340078086323</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,13 +9729,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>171.2966883299264</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>189.0022427662467</v>
       </c>
       <c r="L30" t="n">
-        <v>234.4116509503166</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10209,10 +10209,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,16 +10425,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>180.0237016735871</v>
+        <v>104.8749102765746</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,16 +10674,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>15.83804904622824</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10835,7 +10835,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10899,16 +10899,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>202.5230052237939</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11136,16 +11136,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>349.7653003338568</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,19 +11385,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>80.50021372615217</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>146.4805103800788</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>82.39383318338569</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23653,10 +23653,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23707,16 +23707,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>82.39383318338591</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>111.733128963635</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>82.39383318338616</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>78.54216539558286</v>
       </c>
     </row>
     <row r="20">
@@ -24127,10 +24127,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,10 +24175,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>108.7702212573409</v>
       </c>
       <c r="T22" t="n">
-        <v>82.39383318338592</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338569</v>
+        <v>189.3952778808841</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633777</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,16 +24649,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338709</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>39.56409667619069</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533801</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965516</v>
+        <v>93.41221638965533</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>90.18802562959543</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.7105717389791</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>9.062612973928847</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>705687.6684372856</v>
+        <v>705687.6684372855</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>705687.6684372853</v>
+        <v>705687.6684372856</v>
       </c>
     </row>
     <row r="11">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312484</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="E2" t="n">
+        <v>684300.8545409905</v>
+      </c>
+      <c r="F2" t="n">
+        <v>684300.8545409905</v>
+      </c>
+      <c r="G2" t="n">
+        <v>684300.8545409905</v>
+      </c>
+      <c r="H2" t="n">
+        <v>684300.8545409908</v>
+      </c>
+      <c r="I2" t="n">
         <v>684300.8545409907</v>
       </c>
-      <c r="F2" t="n">
-        <v>684300.8545409897</v>
-      </c>
-      <c r="G2" t="n">
-        <v>684300.8545409904</v>
-      </c>
-      <c r="H2" t="n">
-        <v>684300.8545409903</v>
-      </c>
-      <c r="I2" t="n">
-        <v>684300.8545409901</v>
-      </c>
       <c r="J2" t="n">
-        <v>684300.8545409901</v>
+        <v>684300.8545409905</v>
       </c>
       <c r="K2" t="n">
-        <v>711938.7403542225</v>
+        <v>711938.7403542231</v>
       </c>
       <c r="L2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312486</v>
       </c>
       <c r="M2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312485</v>
       </c>
       <c r="N2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312483</v>
       </c>
       <c r="O2" t="n">
         <v>718411.5486312484</v>
       </c>
       <c r="P2" t="n">
-        <v>718411.5486312483</v>
+        <v>718411.5486312485</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.407704980418203e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768957</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284581</v>
+        <v>44162.60530284563</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086679</v>
+        <v>10342.90680086688</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284578</v>
+        <v>44162.60530284562</v>
       </c>
     </row>
     <row r="4">
@@ -26427,37 +26427,37 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
+        <v>22174.60758687071</v>
+      </c>
+      <c r="G4" t="n">
         <v>22174.60758687072</v>
       </c>
-      <c r="G4" t="n">
-        <v>22174.60758687073</v>
-      </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687069</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106728</v>
+        <v>40339.23010106724</v>
       </c>
       <c r="L4" t="n">
+        <v>44593.39482819119</v>
+      </c>
+      <c r="M4" t="n">
+        <v>44593.39482819119</v>
+      </c>
+      <c r="N4" t="n">
         <v>44593.3948281912</v>
       </c>
-      <c r="M4" t="n">
-        <v>44593.39482819122</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>44593.39482819119</v>
       </c>
-      <c r="O4" t="n">
-        <v>44593.3948281912</v>
-      </c>
       <c r="P4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819119</v>
       </c>
     </row>
     <row r="5">
@@ -26473,28 +26473,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022282</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
@@ -26509,7 +26509,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-120048.2764332305</v>
+        <v>-120048.2764332303</v>
       </c>
       <c r="C6" t="n">
-        <v>469919.6027813143</v>
+        <v>469919.6027813145</v>
       </c>
       <c r="D6" t="n">
-        <v>469919.6027813135</v>
+        <v>469919.6027813141</v>
       </c>
       <c r="E6" t="n">
-        <v>44978.88452850767</v>
+        <v>44881.42540253489</v>
       </c>
       <c r="F6" t="n">
-        <v>570138.9210054025</v>
+        <v>570041.4618794312</v>
       </c>
       <c r="G6" t="n">
-        <v>570138.921005403</v>
+        <v>570041.4618794312</v>
       </c>
       <c r="H6" t="n">
-        <v>570138.921005403</v>
+        <v>570041.4618794314</v>
       </c>
       <c r="I6" t="n">
-        <v>570138.9210054028</v>
+        <v>570041.4618794313</v>
       </c>
       <c r="J6" t="n">
-        <v>393715.7018128099</v>
+        <v>393618.2426868381</v>
       </c>
       <c r="K6" t="n">
-        <v>530808.6964200865</v>
+        <v>530790.2026821531</v>
       </c>
       <c r="L6" t="n">
-        <v>565760.1411821648</v>
+        <v>565760.1411821652</v>
       </c>
       <c r="M6" t="n">
-        <v>441302.0327491945</v>
+        <v>441302.0327491948</v>
       </c>
       <c r="N6" t="n">
         <v>576103.0479830316</v>
@@ -26561,7 +26561,7 @@
         <v>576103.0479830318</v>
       </c>
       <c r="P6" t="n">
-        <v>531940.4426801858</v>
+        <v>531940.4426801864</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26741,13 +26741,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.743664217087</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26774,10 +26774,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108349</v>
+        <v>12.9286335010836</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855702</v>
       </c>
     </row>
     <row r="3">
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370132</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>252.8796012853236</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>85.34635367328977</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27540,25 +27540,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>158.9207969366495</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>216.2476847070479</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,10 +27625,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>339.5382092338688</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27667,19 +27667,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>96.72459696620092</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,16 +27774,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>92.89577304195201</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>158.2281710140029</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,22 +27856,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>130.5591397846293</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>158.0700566698777</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>107.5829646831818</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853696</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491425</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>46.76331713866882</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,10 +28065,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-4.073824175995637e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30232,10 +30232,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554472</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081579</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630672</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338307</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119868</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954669</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044139</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633806</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727386</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473559</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141116</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188921</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890692</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396483</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478009</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983124</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923049</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479579</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034986</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372668</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619158</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078616</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644448</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492007</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813582</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302246</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175852</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383808</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678013</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197226</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315613</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34790,7 +34790,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35021,7 +35021,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343421</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530454</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.93761631168</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898691</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.441326826294</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932186</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.58174042459</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735648</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137342</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713961</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873156</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>481.7210653803926</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
@@ -35507,10 +35507,10 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>350.3150673110547</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>509.9122281478584</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,10 +35963,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>299.8843243654609</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
@@ -35975,13 +35975,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O20" t="n">
         <v>713.1546070951472</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>448.8807855431339</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>294.2627707717789</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
         <v>805.3296502221116</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>274.9155166742622</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504662</v>
@@ -36449,13 +36449,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>453.6603905710345</v>
       </c>
       <c r="P27" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556545</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206028</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>339.5776813541859</v>
       </c>
       <c r="L30" t="n">
-        <v>483.6693559063409</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
@@ -36929,10 +36929,10 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412272</v>
+        <v>67.71102679412257</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584678</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491601</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.586857240358</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043195</v>
+        <v>94.4289566004318</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
         <v>713.1546070951472</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37166,7 +37166,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>268.0367344586612</v>
+        <v>192.8879430616487</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
@@ -37312,7 +37312,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
@@ -37394,16 +37394,16 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>103.8510818313024</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37555,7 +37555,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P38" t="n">
         <v>570.6060255109123</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>353.0984438117331</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37637,13 +37637,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37780,16 +37780,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>660.1896773843231</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,16 +38017,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
         <v>713.1546070951472</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>168.5132465112263</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
